--- a/007_case_tracker_automator/data/agenda_atencion.xlsx
+++ b/007_case_tracker_automator/data/agenda_atencion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\3_portafolio\007_case_tracker_automator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED4B88-7920-4C46-9A14-E1843DD66872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9307F-18BE-46AE-A616-46AA80FDCED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
   <si>
     <t>NOMBRE DEL ESTUDIANTE</t>
   </si>
@@ -347,9 +347,6 @@
     <t>valentinaarenas2@gmail.com</t>
   </si>
   <si>
-    <t>1-1-2023 la cita se la dieron para dentro de dos semanas proximo seguimiento 1-2-2023 se atendió y se remitipó a psiquiatria revisar 1-3-2023 me dice que ya todo bien</t>
-  </si>
-  <si>
     <t>ACTIVO</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
   </si>
   <si>
     <t>Pepito 1</t>
-  </si>
-  <si>
-    <t>6-02-2023 se habla con el estudiante</t>
   </si>
   <si>
     <t>4-2</t>
@@ -384,6 +378,21 @@
   </si>
   <si>
     <t>nieta</t>
+  </si>
+  <si>
+    <t>9-01-2024 se habló con la estudiante 10-01-2024 se habló con la madre</t>
+  </si>
+  <si>
+    <t>29-1-2024 se envio mensaje y la señora no contestó</t>
+  </si>
+  <si>
+    <t>Pepito 2</t>
+  </si>
+  <si>
+    <t>Acudiente 2</t>
+  </si>
+  <si>
+    <t>30-1-2024 se envio mensaje y la señora no contestó</t>
   </si>
 </sst>
 </file>
@@ -887,11 +896,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E639C4-BD39-4EE0-910D-3F762F50C775}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -903,7 +912,7 @@
     <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.125" customWidth="1"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
@@ -926,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>104</v>
@@ -968,12 +977,12 @@
         <v>13</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="83.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>14</v>
@@ -982,9 +991,11 @@
         <v>3136430362</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="F2" s="26" t="s">
         <v>105</v>
       </c>
@@ -992,26 +1003,24 @@
         <v>15</v>
       </c>
       <c r="H2" s="13">
-        <v>44963</v>
+        <v>45313</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
-      <c r="J2" s="25">
-        <v>44986</v>
-      </c>
+      <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P2" s="12">
         <v>1</v>
@@ -1026,13 +1035,73 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:19" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3136430362</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45313</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="25">
+        <v>45319</v>
+      </c>
+      <c r="K3" s="25">
+        <v>45320</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{23D5383F-9B0B-418D-A398-F0145380E59E}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{0E3F2B0A-E1E3-46D0-B1B7-4A5B98F44161}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -1040,49 +1109,49 @@
           <x14:formula1>
             <xm:f>INFORMACIÓN!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N2</xm:sqref>
+          <xm:sqref>N2:N3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{C216D3A1-8C89-4404-8DDB-13D2526DC591}">
           <x14:formula1>
             <xm:f>INFORMACIÓN!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>P2</xm:sqref>
+          <xm:sqref>P2:P3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{38D8F28F-573B-4B9D-8135-A8301A1DA4C7}">
           <x14:formula1>
             <xm:f>INFORMACIÓN!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O2</xm:sqref>
+          <xm:sqref>O2:O3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{BDD9A81E-029D-4256-83BD-DB67A428CEB8}">
           <x14:formula1>
             <xm:f>INFORMACIÓN!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M2</xm:sqref>
+          <xm:sqref>M2:M3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Haz clic e introduce un valor del intervalo" xr:uid="{EA1BDC3C-7AC2-4089-A1F0-8EB0FD951235}">
           <x14:formula1>
             <xm:f>INFORMACIÓN!$A$2:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>G2</xm:sqref>
+          <xm:sqref>G2:G3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{D1D48335-A878-4DBA-BFBF-4C14A0B561A1}">
           <x14:formula1>
             <xm:f>INFORMACIÓN!$G$2:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B521D43-EA5A-471B-A279-A5E8D3211789}">
           <x14:formula1>
             <xm:f>INFORMACIÓN!$I$2:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A72CB2E-5712-4097-867C-B68D60AEF947}">
           <x14:formula1>
             <xm:f>INFORMACIÓN!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>S2</xm:sqref>
+          <xm:sqref>S2:S3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2328,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
@@ -2376,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -2421,7 +2490,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -2460,7 +2529,7 @@
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -2492,7 +2561,7 @@
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -2525,7 +2594,7 @@
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -2558,7 +2627,7 @@
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -2711,7 +2780,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
